--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/131.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/131.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1289425279759247</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.604591967563112</v>
+        <v>-1.604902049330008</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04291473019254238</v>
+        <v>-0.04295408067057489</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1466237020568021</v>
+        <v>-0.1472659018582928</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1209354704708504</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.586429360922423</v>
+        <v>-1.586936195079482</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07337829626619589</v>
+        <v>-0.07324450464088533</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1205044287579385</v>
+        <v>-0.1212615319552841</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1187567709832659</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.635113772344253</v>
+        <v>-1.635550562650414</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1212410697067072</v>
+        <v>-0.1210994079857901</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1159618095738647</v>
+        <v>-0.1166575260254796</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1239279507287034</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.729191321205274</v>
+        <v>-1.729526587278111</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1480686516101561</v>
+        <v>-0.1480119869217893</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1267894871092921</v>
+        <v>-0.1275277020771821</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.126616914851908</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760138898158727</v>
+        <v>-1.760017698686387</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1091573249124818</v>
+        <v>-0.1092344518494256</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1169298313334646</v>
+        <v>-0.1176113816129878</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1147045629788237</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.620620991284877</v>
+        <v>-1.620313270546663</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04466976151279264</v>
+        <v>-0.04472957423940207</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1178411884046977</v>
+        <v>-0.1184314455751855</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08069431320203135</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331993892021531</v>
+        <v>-1.332086759149687</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009205536690766847</v>
+        <v>-0.008900176981234513</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1127744208532308</v>
+        <v>-0.1135378201270616</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.02253181786203745</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9109595172648096</v>
+        <v>-0.9113616791503019</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008813605929562976</v>
+        <v>-0.007916415030421583</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07261489699236505</v>
+        <v>-0.07336570411322549</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.06034059680110762</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3844123447308183</v>
+        <v>-0.3854118468728442</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05535105526993911</v>
+        <v>-0.05400841695946963</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02533608464585629</v>
+        <v>-0.02600819081065169</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1708384803431018</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1799490631733007</v>
+        <v>0.1782428264458108</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1145137119822681</v>
+        <v>-0.1124879493731541</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05706539037335601</v>
+        <v>0.05624217837291575</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3105237329266995</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8591666463587309</v>
+        <v>0.8569567235124247</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2433503250989719</v>
+        <v>-0.2408759670402873</v>
       </c>
       <c r="G12" t="n">
-        <v>0.136894918148363</v>
+        <v>0.1360937424156209</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4747413329457125</v>
       </c>
       <c r="E13" t="n">
-        <v>1.55240873991495</v>
+        <v>1.549501526597908</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4479979951740022</v>
+        <v>-0.4448924554476759</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2555854040091626</v>
+        <v>0.2548534851177578</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6525555411426477</v>
       </c>
       <c r="E14" t="n">
-        <v>2.276041994665243</v>
+        <v>2.272522487910015</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6788247512745055</v>
+        <v>-0.6753335768634605</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3763724833395348</v>
+        <v>0.3755476973199733</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8238865661713269</v>
       </c>
       <c r="E15" t="n">
-        <v>3.008354390850388</v>
+        <v>3.004387862664711</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.926516335250185</v>
+        <v>-0.922669432517726</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4884977354453893</v>
+        <v>0.4877170219612242</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9760838543097766</v>
       </c>
       <c r="E16" t="n">
-        <v>3.628968094111551</v>
+        <v>3.625077118843696</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.210419016120947</v>
+        <v>-1.205719782034304</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6340425615347001</v>
+        <v>0.6327723281038103</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.117193483976019</v>
       </c>
       <c r="E17" t="n">
-        <v>4.223028094796372</v>
+        <v>4.218957681348688</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.464811986505565</v>
+        <v>-1.459535087401404</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7836436348996026</v>
+        <v>0.7822726642449497</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.260982232966916</v>
       </c>
       <c r="E18" t="n">
-        <v>4.751586863767385</v>
+        <v>4.747658112040619</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.705965882060922</v>
+        <v>-1.700497739633523</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9203188632403839</v>
+        <v>0.9186346627805921</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.407869693975728</v>
       </c>
       <c r="E19" t="n">
-        <v>5.18161675780234</v>
+        <v>5.177643933540176</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.995033706678232</v>
+        <v>-1.988957992870012</v>
       </c>
       <c r="G19" t="n">
-        <v>1.065630734499742</v>
+        <v>1.063973292365012</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.544551682893032</v>
       </c>
       <c r="E20" t="n">
-        <v>5.519199786785941</v>
+        <v>5.515107337070559</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.248744339773765</v>
+        <v>-2.242472660584943</v>
       </c>
       <c r="G20" t="n">
-        <v>1.216428062396833</v>
+        <v>1.214682475191311</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.65472920379683</v>
       </c>
       <c r="E21" t="n">
-        <v>5.803930401714507</v>
+        <v>5.799894616687492</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.471025746064727</v>
+        <v>-2.464462873338464</v>
       </c>
       <c r="G21" t="n">
-        <v>1.353446426906058</v>
+        <v>1.351842501421453</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.732361578966021</v>
       </c>
       <c r="E22" t="n">
-        <v>6.009853027277791</v>
+        <v>6.006021864736545</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.676589495268355</v>
+        <v>-2.670151757062235</v>
       </c>
       <c r="G22" t="n">
-        <v>1.468992022562499</v>
+        <v>1.467317266217435</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.778963935920642</v>
       </c>
       <c r="E23" t="n">
-        <v>6.149663701708203</v>
+        <v>6.145539771610395</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.796853213240894</v>
+        <v>-2.790617736491862</v>
       </c>
       <c r="G23" t="n">
-        <v>1.568096988496954</v>
+        <v>1.566360845406159</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.794383085195541</v>
       </c>
       <c r="E24" t="n">
-        <v>6.254068390024078</v>
+        <v>6.249875203084933</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.869949874224538</v>
+        <v>-2.86401031307031</v>
       </c>
       <c r="G24" t="n">
-        <v>1.61578347179588</v>
+        <v>1.614116585546422</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.779638777499553</v>
       </c>
       <c r="E25" t="n">
-        <v>6.271861102171261</v>
+        <v>6.267845779392823</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.948076313310297</v>
+        <v>-2.942109206821446</v>
       </c>
       <c r="G25" t="n">
-        <v>1.666226062576203</v>
+        <v>1.664781113022849</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.740673751312906</v>
       </c>
       <c r="E26" t="n">
-        <v>6.260413261102041</v>
+        <v>6.256630893153556</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.009130153996869</v>
+        <v>-3.003166195546261</v>
       </c>
       <c r="G26" t="n">
-        <v>1.684772729882489</v>
+        <v>1.683332502386499</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.683610087532403</v>
       </c>
       <c r="E27" t="n">
-        <v>6.164284765325966</v>
+        <v>6.160768406608979</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.023035825924</v>
+        <v>-3.017119875056591</v>
       </c>
       <c r="G27" t="n">
-        <v>1.691241948471035</v>
+        <v>1.689847367529562</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.615261429960739</v>
       </c>
       <c r="E28" t="n">
-        <v>5.999620328970216</v>
+        <v>5.996385719675942</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.032954507416876</v>
+        <v>-3.026950411478675</v>
       </c>
       <c r="G28" t="n">
-        <v>1.676869579874438</v>
+        <v>1.675569440080244</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.541462671206803</v>
       </c>
       <c r="E29" t="n">
-        <v>5.828814070003149</v>
+        <v>5.82585019199774</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.989803560215979</v>
+        <v>-2.984074130614444</v>
       </c>
       <c r="G29" t="n">
-        <v>1.639884852581236</v>
+        <v>1.638614619150346</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.465433164231777</v>
       </c>
       <c r="E30" t="n">
-        <v>5.635477301333786</v>
+        <v>5.632799894808454</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.960873875776032</v>
+        <v>-2.955339624545539</v>
       </c>
       <c r="G30" t="n">
-        <v>1.569987385461636</v>
+        <v>1.568846221598693</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.389217873837308</v>
       </c>
       <c r="E31" t="n">
-        <v>5.395755763178813</v>
+        <v>5.393342791865859</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.859662085247716</v>
+        <v>-2.85449930252985</v>
       </c>
       <c r="G31" t="n">
-        <v>1.495487486431353</v>
+        <v>1.494391969122928</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.31258316667985</v>
       </c>
       <c r="E32" t="n">
-        <v>5.164151441632387</v>
+        <v>5.161675509554581</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.798080948155509</v>
+        <v>-2.792867009816201</v>
       </c>
       <c r="G32" t="n">
-        <v>1.422032736097614</v>
+        <v>1.420929348693583</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.231975977058354</v>
       </c>
       <c r="E33" t="n">
-        <v>4.86950922829699</v>
+        <v>4.867181254016586</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.673804268433213</v>
+        <v>-2.668918513080696</v>
       </c>
       <c r="G33" t="n">
-        <v>1.348250589786645</v>
+        <v>1.347329788600684</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.144111113332286</v>
       </c>
       <c r="E34" t="n">
-        <v>4.608974435301057</v>
+        <v>4.60702894766713</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.597184952656099</v>
+        <v>-2.592347991896342</v>
       </c>
       <c r="G34" t="n">
-        <v>1.247453553296791</v>
+        <v>1.24653275211083</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.047821873598608</v>
       </c>
       <c r="E35" t="n">
-        <v>4.294537357496183</v>
+        <v>4.293051483445676</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.523552338161652</v>
+        <v>-2.519027820197474</v>
       </c>
       <c r="G35" t="n">
-        <v>1.15580786397818</v>
+        <v>1.154905951021675</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.943750942613389</v>
       </c>
       <c r="E36" t="n">
-        <v>3.95491912178874</v>
+        <v>3.95350250457957</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.427407315184803</v>
+        <v>-2.423085058677712</v>
       </c>
       <c r="G36" t="n">
-        <v>1.075836674482256</v>
+        <v>1.075257435445617</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8364145511322237</v>
       </c>
       <c r="E37" t="n">
-        <v>3.671346984933451</v>
+        <v>3.669987032412647</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.358779294486533</v>
+        <v>-2.354621522977617</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9892278463518067</v>
+        <v>0.9885573142061327</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7298409765889968</v>
       </c>
       <c r="E38" t="n">
-        <v>3.370869882715392</v>
+        <v>3.370059262867922</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.290691162346868</v>
+        <v>-2.286522372704103</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8997243970572857</v>
+        <v>0.8992159888811057</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.626776294676577</v>
       </c>
       <c r="E39" t="n">
-        <v>3.052748026147553</v>
+        <v>3.052241191990494</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.213015679739361</v>
+        <v>-2.209182156169434</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8114313684670449</v>
+        <v>0.8110473078014476</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5302163829501051</v>
       </c>
       <c r="E40" t="n">
-        <v>2.772956683221628</v>
+        <v>2.772138193278551</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.139198905007723</v>
+        <v>-2.135267005242714</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7445449999264935</v>
+        <v>0.7442774166758724</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4411304099486733</v>
       </c>
       <c r="E41" t="n">
-        <v>2.476079362733984</v>
+        <v>2.475463921257555</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.079013922876109</v>
+        <v>-2.075366133562495</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6862732380368207</v>
+        <v>0.686164630717451</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3592934852815355</v>
       </c>
       <c r="E42" t="n">
-        <v>2.199777620199982</v>
+        <v>2.199407725706477</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.993111042321563</v>
+        <v>-1.989648200254702</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6144570416083556</v>
+        <v>0.6145388906026632</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2854308588593221</v>
       </c>
       <c r="E43" t="n">
-        <v>1.946909874343905</v>
+        <v>1.946544701907764</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.930230552444722</v>
+        <v>-1.926760627291815</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5441345893260048</v>
+        <v>0.5440716285611528</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2187256585474402</v>
       </c>
       <c r="E44" t="n">
-        <v>1.744986831367847</v>
+        <v>1.744531939841791</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.87865151985882</v>
+        <v>-1.875389365229924</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4776401515466572</v>
+        <v>0.4775960790112608</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1579000635031547</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532390364730248</v>
+        <v>1.532262869181423</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.793503381472938</v>
+        <v>-1.790293956484606</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4267048927813669</v>
+        <v>0.4266324879017871</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1020213896737007</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336333691019277</v>
+        <v>1.336042497481836</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.734058188328336</v>
+        <v>-1.730986490013117</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3749779023980624</v>
+        <v>0.3751683587117398</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.05024230742336597</v>
       </c>
       <c r="E47" t="n">
-        <v>1.181861028473949</v>
+        <v>1.181747699097215</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.702723402671042</v>
+        <v>-1.699746145503102</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3271009627854594</v>
+        <v>0.3270474461353352</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.002282413757525718</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005189974260917</v>
+        <v>1.005274971293467</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.64013174530296</v>
+        <v>-1.637130090838639</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561268665868901</v>
+        <v>0.2561284406060114</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.04065679070892816</v>
       </c>
       <c r="E49" t="n">
-        <v>0.858853416553592</v>
+        <v>0.8589258214331719</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.589866231673783</v>
+        <v>-1.586840966922643</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2215645547213696</v>
+        <v>0.2216290895053429</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.07786327192114655</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7593077252651727</v>
+        <v>0.7594242026801489</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.538933333937175</v>
+        <v>-1.535739649140055</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1796688877697092</v>
+        <v>0.1797224044198334</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1095491082786393</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6438597187942524</v>
+        <v>0.6439746221901074</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.501592091312998</v>
+        <v>-1.49831577051201</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1456039659465197</v>
+        <v>0.1456260022142179</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1365570047360228</v>
       </c>
       <c r="E52" t="n">
-        <v>0.536503744625939</v>
+        <v>0.536440783861087</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.457780056081154</v>
+        <v>-1.454648545039326</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1062251555698191</v>
+        <v>0.1063353369083101</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1593995635405751</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4680087285434183</v>
+        <v>0.4677128129486138</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.418132088434711</v>
+        <v>-1.415288622892081</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07431034386632634</v>
+        <v>0.07435756443996537</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1785687420015252</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3765047009457241</v>
+        <v>0.3758121325323518</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.366284685588627</v>
+        <v>-1.363135860336465</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04352252985368489</v>
+        <v>0.04369409793790667</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1945382060674046</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2863858101747745</v>
+        <v>0.2854004742048403</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.334724028187427</v>
+        <v>-1.331621636499343</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00896021798816439</v>
+        <v>0.009227801238785508</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2079981553584263</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2224475794484193</v>
+        <v>0.2213347479296597</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.314721393193937</v>
+        <v>-1.311703211528843</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008251681103258629</v>
+        <v>-0.008111593401462868</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2194884978690083</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1465861538782113</v>
+        <v>0.1454418419770257</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.321700593977785</v>
+        <v>-1.318698939513464</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04416450137485512</v>
+        <v>-0.04399765534799725</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2297304072014502</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08328540089598287</v>
+        <v>0.08213164488006947</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.301912025584792</v>
+        <v>-1.299092957338543</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07433215185370411</v>
+        <v>-0.07424085874466867</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2389999521730862</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04607716288755591</v>
+        <v>0.04474554271093552</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.312306060852302</v>
+        <v>-1.309505093825947</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09929924315577561</v>
+        <v>-0.09914971133925204</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2481556501636815</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.007670868047498676</v>
+        <v>-0.009320440086621798</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.316380409347788</v>
+        <v>-1.313742353300488</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1040181524814351</v>
+        <v>-0.1039473216209765</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.257643650474639</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04624378063409333</v>
+        <v>-0.04810584525459204</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.296406893708043</v>
+        <v>-1.293800318043169</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.135169564911097</v>
+        <v>-0.1350987340506385</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.267696945707263</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1001602316151271</v>
+        <v>-0.1019860937958359</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.321069412310143</v>
+        <v>-1.318384135689204</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1428192978406183</v>
+        <v>-0.14283346401271</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2793299576074126</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1436015853439048</v>
+        <v>-0.1457013268517199</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.360910984308506</v>
+        <v>-1.358135201588092</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.161704379257984</v>
+        <v>-0.1616634547608302</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2935574996594228</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1982719914840416</v>
+        <v>-0.2006833887778742</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.402284863921455</v>
+        <v>-1.399383159671338</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774429964518696</v>
+        <v>-0.1774587366430826</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3099706800062278</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2513526383116647</v>
+        <v>-0.2540158786649054</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.435166910374987</v>
+        <v>-1.43231400071763</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028586832035118</v>
+        <v>-0.2028634052608757</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3280617067248925</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3181461397240594</v>
+        <v>-0.3208235462493918</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.477296319166161</v>
+        <v>-1.474602385440055</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2088462519409396</v>
+        <v>-0.2089391190690963</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3471249514784588</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3055083401991361</v>
+        <v>-0.3084202755735424</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.523659839393633</v>
+        <v>-1.521014700260288</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2419242637750735</v>
+        <v>-0.2420250009988368</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3667285988055726</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3327089646343333</v>
+        <v>-0.3353060961844794</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.554375248526695</v>
+        <v>-1.551397204349194</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2522262189239866</v>
+        <v>-0.2523127899756581</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3871422373093588</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3607579853759116</v>
+        <v>-0.3632732679317501</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.613762202963809</v>
+        <v>-1.610663746323529</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.258248416082083</v>
+        <v>-0.2581539749348049</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4079734001437988</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3872125247476122</v>
+        <v>-0.3897073450548738</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.631813841256446</v>
+        <v>-1.628838945117188</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2686007398428776</v>
+        <v>-0.2684921325235078</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4283015745655197</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3939005319940189</v>
+        <v>-0.3961513793374788</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.670076672076145</v>
+        <v>-1.666864886059131</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2871977757610452</v>
+        <v>-0.28703407777243</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.447575997759231</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3920809658897952</v>
+        <v>-0.3942263539521281</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.702742290900498</v>
+        <v>-1.699408518401583</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.28478323042897</v>
+        <v>-0.2846289765550825</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4647783908773905</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.352813910870707</v>
+        <v>-0.3547468063516642</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.727555128328682</v>
+        <v>-1.724453523650159</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2870639841357346</v>
+        <v>-0.286772790598294</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4789559020158684</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3112645281257327</v>
+        <v>-0.3132383481038438</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.759963395026702</v>
+        <v>-1.756764201162659</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2917970596334858</v>
+        <v>-0.2914806817901044</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4890757303801052</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2479181285889866</v>
+        <v>-0.2496511236415386</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.779302580960563</v>
+        <v>-1.776248196855679</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2955101707406341</v>
+        <v>-0.2950237988321522</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4940125882115525</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1403008672465372</v>
+        <v>-0.1419740495724799</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.787433963741203</v>
+        <v>-1.784431522267321</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2785390965747702</v>
+        <v>-0.2779567094998889</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4933581295510444</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05376129595742542</v>
+        <v>-0.05518893130044514</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.773723470185113</v>
+        <v>-1.770723389739914</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2650891031832557</v>
+        <v>-0.2644941239554041</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4868601140999065</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08142333627548415</v>
+        <v>0.08008384600325727</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.777608936386044</v>
+        <v>-1.774640336323271</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2373596083233016</v>
+        <v>-0.2365678767052873</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4743140969633945</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2090495286879078</v>
+        <v>0.2076832800906188</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.806349738531434</v>
+        <v>-1.803504698969683</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.220783612956884</v>
+        <v>-0.2200391019125088</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4557317859144434</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3556064490722148</v>
+        <v>0.3541142789452218</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.76330031556386</v>
+        <v>-1.760847206763313</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1945573063577719</v>
+        <v>-0.1937592786632725</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4317883744546382</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4855527456694357</v>
+        <v>0.4841896451103894</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.741677227884992</v>
+        <v>-1.739435037646699</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1659589529428598</v>
+        <v>-0.1652301820896975</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.402930135492377</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6641503992869396</v>
+        <v>0.6624913831330886</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.702277955259714</v>
+        <v>-1.700259275736646</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1400049516517327</v>
+        <v>-0.1393265494104521</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3697007341712541</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8373948138728998</v>
+        <v>0.8359671785298801</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.633014817845999</v>
+        <v>-1.631361310759072</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1212426437258285</v>
+        <v>-0.1202919361765629</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3331416504448055</v>
       </c>
       <c r="E84" t="n">
-        <v>1.019107451331458</v>
+        <v>1.01740436264221</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.55343792013996</v>
+        <v>-1.552236156540847</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1053481986389342</v>
+        <v>-0.1043612886498786</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2946650683383739</v>
       </c>
       <c r="E85" t="n">
-        <v>1.166190094102279</v>
+        <v>1.1643516397686</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.448483112141191</v>
+        <v>-1.447215239738983</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08533769354983851</v>
+        <v>-0.08416032724710559</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2564162825214319</v>
       </c>
       <c r="E86" t="n">
-        <v>1.327849727955466</v>
+        <v>1.326154509361825</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.331628719585389</v>
+        <v>-1.330582783879285</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05522828177847765</v>
+        <v>-0.05403832332277433</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2209042522986118</v>
       </c>
       <c r="E87" t="n">
-        <v>1.468447411946529</v>
+        <v>1.466457851777205</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.201488818636248</v>
+        <v>-1.200677411779217</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0313000430964646</v>
+        <v>-0.03003767976118145</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1902724011321799</v>
       </c>
       <c r="E88" t="n">
-        <v>1.559025916300898</v>
+        <v>1.557431434931021</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.05570552865006</v>
+        <v>-1.055165640091454</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01721099794170215</v>
+        <v>-0.01598798508445151</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1675462548933637</v>
       </c>
       <c r="E89" t="n">
-        <v>1.664109006858054</v>
+        <v>1.662394900034957</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9101260741400808</v>
+        <v>-0.9099789033522393</v>
       </c>
       <c r="G89" t="n">
-        <v>0.006940751455535609</v>
+        <v>0.008193670676090956</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1547905491668209</v>
       </c>
       <c r="E90" t="n">
-        <v>1.708019418284979</v>
+        <v>1.706415492800373</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7190802903017706</v>
+        <v>-0.7193667617818472</v>
       </c>
       <c r="G90" t="n">
-        <v>0.008336906416129318</v>
+        <v>0.009733061376723029</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.152704781468503</v>
       </c>
       <c r="E91" t="n">
-        <v>1.725694078998064</v>
+        <v>1.724524582790938</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5341487837401527</v>
+        <v>-0.5345155301954158</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.009882364912926142</v>
+        <v>-0.008668796170403312</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1614690806749035</v>
       </c>
       <c r="E92" t="n">
-        <v>1.698251055618187</v>
+        <v>1.697234239265827</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3701800638360175</v>
+        <v>-0.3706900460313189</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01316576879995938</v>
+        <v>-0.01196321819128565</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1793848971605029</v>
       </c>
       <c r="E93" t="n">
-        <v>1.654945067533841</v>
+        <v>1.654164354049676</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2177095536129837</v>
+        <v>-0.2182714784392881</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02849199298406417</v>
+        <v>-0.02750665701412994</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2030528840104866</v>
       </c>
       <c r="E94" t="n">
-        <v>1.556612944987944</v>
+        <v>1.556104536811764</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07932021844910599</v>
+        <v>-0.0800458412640256</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03469048028374629</v>
+        <v>-0.03360598110917011</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2297008262580963</v>
       </c>
       <c r="E95" t="n">
-        <v>1.486682423466797</v>
+        <v>1.48605596385652</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02735105740144163</v>
+        <v>0.02662858262476461</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0701956296029259</v>
+        <v>-0.06928427253169279</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2546425961412986</v>
       </c>
       <c r="E96" t="n">
-        <v>1.402554249471518</v>
+        <v>1.402037971199732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.109266160512172</v>
+        <v>0.1084098941101845</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09929294707929041</v>
+        <v>-0.09841149637136203</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2722886904366394</v>
       </c>
       <c r="E97" t="n">
-        <v>1.322477600694467</v>
+        <v>1.322041597397867</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1724095115822704</v>
+        <v>0.1715406530273124</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1189461498278508</v>
+        <v>-0.1179686839535231</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2816018354609107</v>
       </c>
       <c r="E98" t="n">
-        <v>1.227828682892414</v>
+        <v>1.227285646295565</v>
       </c>
       <c r="F98" t="n">
-        <v>0.205360027867579</v>
+        <v>0.2043904320888578</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1395831145272241</v>
+        <v>-0.1386749054942336</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2840376095600282</v>
       </c>
       <c r="E99" t="n">
-        <v>1.141566138968651</v>
+        <v>1.140871996536158</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2261843008423871</v>
+        <v>0.2252760918093966</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1419504392856603</v>
+        <v>-0.1410532483865189</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2843231900520679</v>
       </c>
       <c r="E100" t="n">
-        <v>1.053362829468325</v>
+        <v>1.052712759571227</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2381767525275771</v>
+        <v>0.237265395456344</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1564786357752657</v>
+        <v>-0.1555987590864586</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2853416343691071</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9627654368844996</v>
+        <v>0.9620949047388255</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2323906582376757</v>
+        <v>0.2312069958584576</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1702229707424633</v>
+        <v>-0.1692675411358338</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2931424711990865</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9017296974178228</v>
+        <v>0.9011567544576693</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2385592391740531</v>
+        <v>0.2374290934449592</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1956906001251084</v>
+        <v>-0.1946249891799879</v>
       </c>
     </row>
   </sheetData>
